--- a/biology/Médecine/Matthieu_Maheust_de_Vaucouleurs/Matthieu_Maheust_de_Vaucouleurs.xlsx
+++ b/biology/Médecine/Matthieu_Maheust_de_Vaucouleurs/Matthieu_Maheust_de_Vaucouleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mathieu Maheust, sieur de Vaucouleurs, né le 5 octobre 1630 à Caen où il est mort le 2 avril 1700, est un médecin français.
 Titulaire d’un doctorat en médecine de l’université de Reims, Maheust occupait une chaire de professeur en médecine à l’université de Caen. Assidu à la pratique et à l’enseignement de la médecine cette science, il était également attentif aux nouvelles découvertes dans sa spécialité effectuées grâce à l’observation empirique. Lui-même se confirmait dans ces connaissances par sa propre expérience, ce qui lui valut d’être admis à l’Académie de physique de Caen aux côtés de Graindorge et Huet.
@@ -514,7 +526,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre-Daniel Huet, Les origines de la ville de Caen, revues, corrigées &amp; augmentées, Rouen, Maurry, 1706.
  Portail de la médecine   Portail de Caen                    </t>
